--- a/simulation_data/iterative_algorithm/i_error_level_7_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_7_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.15669243882577</v>
+        <v>91.00846056513268</v>
       </c>
       <c r="D2" t="n">
-        <v>9.123735710414197</v>
+        <v>6.964873265864207</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.02605548542284</v>
+        <v>89.14153199820819</v>
       </c>
       <c r="D3" t="n">
-        <v>9.326297596141789</v>
+        <v>7.166778265312898</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.79507515005136</v>
+        <v>86.12892789729887</v>
       </c>
       <c r="D4" t="n">
-        <v>8.186377431097833</v>
+        <v>7.433606880878767</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.62062355922413</v>
+        <v>86.26880470967663</v>
       </c>
       <c r="D5" t="n">
-        <v>8.391827473718065</v>
+        <v>6.801701538191093</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.6123895982679</v>
+        <v>87.0000358741725</v>
       </c>
       <c r="D6" t="n">
-        <v>8.618671642231904</v>
+        <v>7.284319123562164</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.56132845225834</v>
+        <v>86.24919451950777</v>
       </c>
       <c r="D7" t="n">
-        <v>8.221587691568333</v>
+        <v>8.249947792847721</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.49572215682677</v>
+        <v>83.95083206970739</v>
       </c>
       <c r="D8" t="n">
-        <v>8.831038773974656</v>
+        <v>8.259236905947615</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.28961606347094</v>
+        <v>82.59282275123252</v>
       </c>
       <c r="D9" t="n">
-        <v>8.590292224656595</v>
+        <v>7.436480979120655</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.82032143442599</v>
+        <v>80.4130037054145</v>
       </c>
       <c r="D10" t="n">
-        <v>8.002689976414574</v>
+        <v>8.456021436414694</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.5513880253354</v>
+        <v>80.58064048848877</v>
       </c>
       <c r="D11" t="n">
-        <v>8.33401587602895</v>
+        <v>8.388481046809925</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.79760213830269</v>
+        <v>80.04337103142302</v>
       </c>
       <c r="D12" t="n">
-        <v>9.161501779820744</v>
+        <v>6.920364727424947</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.49307630382683</v>
+        <v>78.15873567992064</v>
       </c>
       <c r="D13" t="n">
-        <v>8.912843178278049</v>
+        <v>7.48100986017629</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.43720369151919</v>
+        <v>77.04074039600914</v>
       </c>
       <c r="D14" t="n">
-        <v>8.325426827416221</v>
+        <v>7.608966712288177</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.05317567366444</v>
+        <v>77.39819599887605</v>
       </c>
       <c r="D15" t="n">
-        <v>8.087435824578305</v>
+        <v>7.627209276522542</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.0787086439402</v>
+        <v>76.37060306186048</v>
       </c>
       <c r="D16" t="n">
-        <v>8.097987209098193</v>
+        <v>8.085089595620195</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.73939865182578</v>
+        <v>74.29731815474175</v>
       </c>
       <c r="D17" t="n">
-        <v>8.643459439534444</v>
+        <v>7.18799033971782</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.29003995861139</v>
+        <v>73.44741240372743</v>
       </c>
       <c r="D18" t="n">
-        <v>9.493492748966114</v>
+        <v>8.313718053299398</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.26694729763084</v>
+        <v>72.7033729433209</v>
       </c>
       <c r="D19" t="n">
-        <v>7.934576689194572</v>
+        <v>7.72914599759566</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.76701650338362</v>
+        <v>72.59576169261098</v>
       </c>
       <c r="D20" t="n">
-        <v>9.093504981187417</v>
+        <v>8.167341542155686</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.64015353150803</v>
+        <v>70.10532062237691</v>
       </c>
       <c r="D21" t="n">
-        <v>7.832711978956855</v>
+        <v>7.476619780063149</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.56589569414956</v>
+        <v>70.17672157516535</v>
       </c>
       <c r="D22" t="n">
-        <v>8.211180945421164</v>
+        <v>8.36045186348694</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.71317161797019</v>
+        <v>68.13057727967708</v>
       </c>
       <c r="D23" t="n">
-        <v>7.573124800270066</v>
+        <v>8.3678144108558</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.92573240515178</v>
+        <v>68.96082630725873</v>
       </c>
       <c r="D24" t="n">
-        <v>7.87774984530042</v>
+        <v>8.303264699094616</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.64779132659672</v>
+        <v>66.95067191378051</v>
       </c>
       <c r="D25" t="n">
-        <v>7.407927349423369</v>
+        <v>6.760738719255442</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.00671482800668</v>
+        <v>64.89463354969274</v>
       </c>
       <c r="D26" t="n">
-        <v>8.811509215821903</v>
+        <v>7.844206254932073</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.01302445536334</v>
+        <v>64.07816315429801</v>
       </c>
       <c r="D27" t="n">
-        <v>8.962979929575468</v>
+        <v>7.27583344019474</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.85268412082986</v>
+        <v>64.88704846770553</v>
       </c>
       <c r="D28" t="n">
-        <v>7.505603403944221</v>
+        <v>8.370491428658854</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.58952865227944</v>
+        <v>61.79303799083591</v>
       </c>
       <c r="D29" t="n">
-        <v>8.373970455895716</v>
+        <v>7.905946216556319</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.20626685642432</v>
+        <v>61.28738705057594</v>
       </c>
       <c r="D30" t="n">
-        <v>8.993377290893564</v>
+        <v>8.439633892128409</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.30122870895529</v>
+        <v>61.28729740165701</v>
       </c>
       <c r="D31" t="n">
-        <v>8.93022962054861</v>
+        <v>8.509931644996819</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.04020300205394</v>
+        <v>59.12912420740066</v>
       </c>
       <c r="D32" t="n">
-        <v>9.052964916154499</v>
+        <v>8.645159822368271</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.53547544586409</v>
+        <v>59.47326738494892</v>
       </c>
       <c r="D33" t="n">
-        <v>8.567436413523053</v>
+        <v>8.018543012628299</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.671040075561</v>
+        <v>56.530818922278</v>
       </c>
       <c r="D34" t="n">
-        <v>8.316676598953309</v>
+        <v>9.286242430628649</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.72992560687321</v>
+        <v>57.67167392701295</v>
       </c>
       <c r="D35" t="n">
-        <v>8.254966155265501</v>
+        <v>8.25568188981218</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.39117322836909</v>
+        <v>55.55141615519485</v>
       </c>
       <c r="D36" t="n">
-        <v>8.181000447829183</v>
+        <v>8.122354931651797</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.51111830386574</v>
+        <v>54.8768779497473</v>
       </c>
       <c r="D37" t="n">
-        <v>8.46966184373083</v>
+        <v>8.045242698363774</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.15623255021362</v>
+        <v>51.7710316906551</v>
       </c>
       <c r="D38" t="n">
-        <v>9.515206389790729</v>
+        <v>7.593596645715448</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.34574273846011</v>
+        <v>53.87416012531291</v>
       </c>
       <c r="D39" t="n">
-        <v>8.711333330265559</v>
+        <v>7.991939358642386</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.53465767194974</v>
+        <v>51.43706203731222</v>
       </c>
       <c r="D40" t="n">
-        <v>8.019755038544716</v>
+        <v>7.388045153190135</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.49396789178172</v>
+        <v>50.95848553466976</v>
       </c>
       <c r="D41" t="n">
-        <v>8.186141332487709</v>
+        <v>8.57004787096696</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.51607772492375</v>
+        <v>50.34751845226513</v>
       </c>
       <c r="D42" t="n">
-        <v>8.471936197296131</v>
+        <v>8.424309399584804</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.73303443180028</v>
+        <v>47.87341175579488</v>
       </c>
       <c r="D43" t="n">
-        <v>9.985465635238075</v>
+        <v>8.589928403419654</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.4713138290299</v>
+        <v>47.8520751434287</v>
       </c>
       <c r="D44" t="n">
-        <v>7.509975691754963</v>
+        <v>8.099412202927711</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.93425915045582</v>
+        <v>45.70509890801973</v>
       </c>
       <c r="D45" t="n">
-        <v>8.072212391756239</v>
+        <v>7.665308185603927</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.877716458295</v>
+        <v>46.89844875395429</v>
       </c>
       <c r="D46" t="n">
-        <v>8.522229492461136</v>
+        <v>8.215609184670223</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.81459416558003</v>
+        <v>45.2366295927399</v>
       </c>
       <c r="D47" t="n">
-        <v>8.96704956972744</v>
+        <v>8.752685685703833</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.14671593680441</v>
+        <v>44.02919049805757</v>
       </c>
       <c r="D48" t="n">
-        <v>8.993103491993198</v>
+        <v>8.362185139870812</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.774932656794</v>
+        <v>42.62752852358874</v>
       </c>
       <c r="D49" t="n">
-        <v>8.21973199403503</v>
+        <v>8.522031706657073</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.88405268978179</v>
+        <v>41.19734787476623</v>
       </c>
       <c r="D50" t="n">
-        <v>7.406608174138793</v>
+        <v>7.775687168973798</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.09628916613311</v>
+        <v>41.81757529736608</v>
       </c>
       <c r="D51" t="n">
-        <v>8.690890354494151</v>
+        <v>7.293210617977105</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.12153538726742</v>
+        <v>40.36406415856229</v>
       </c>
       <c r="D52" t="n">
-        <v>8.457957133844621</v>
+        <v>8.151546976126783</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.10265503978767</v>
+        <v>38.10048522724649</v>
       </c>
       <c r="D53" t="n">
-        <v>7.821419626264947</v>
+        <v>8.720276630068515</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.12956471200345</v>
+        <v>37.51302115427924</v>
       </c>
       <c r="D54" t="n">
-        <v>9.133293588089987</v>
+        <v>8.210469932474146</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.98451818932861</v>
+        <v>37.11687932792064</v>
       </c>
       <c r="D55" t="n">
-        <v>8.963549226864021</v>
+        <v>8.009758825898176</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.29941244576153</v>
+        <v>34.24293944552861</v>
       </c>
       <c r="D56" t="n">
-        <v>8.165458666562348</v>
+        <v>8.389252197246865</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.05455428042063</v>
+        <v>34.46508159671268</v>
       </c>
       <c r="D57" t="n">
-        <v>9.522773687813125</v>
+        <v>7.955279695758217</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.38634998718639</v>
+        <v>33.98100688368177</v>
       </c>
       <c r="D58" t="n">
-        <v>8.571790186210194</v>
+        <v>7.091679311721091</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.93908384944933</v>
+        <v>32.41742056006314</v>
       </c>
       <c r="D59" t="n">
-        <v>8.009026053409043</v>
+        <v>8.214898371471971</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.13365319235361</v>
+        <v>33.36593999851339</v>
       </c>
       <c r="D60" t="n">
-        <v>7.695027883227816</v>
+        <v>9.226548111795614</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.66252343584306</v>
+        <v>31.51732037726791</v>
       </c>
       <c r="D61" t="n">
-        <v>8.312501999482857</v>
+        <v>8.074667493823451</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.51868771485077</v>
+        <v>27.90537336214578</v>
       </c>
       <c r="D62" t="n">
-        <v>7.990393841612223</v>
+        <v>8.327501693512083</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.38628059339138</v>
+        <v>27.94933950558885</v>
       </c>
       <c r="D63" t="n">
-        <v>9.220545081808842</v>
+        <v>8.452022734004546</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.37430962647415</v>
+        <v>26.51198365364264</v>
       </c>
       <c r="D64" t="n">
-        <v>8.348871580241502</v>
+        <v>6.822765612239827</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.95696031861105</v>
+        <v>27.55407586916872</v>
       </c>
       <c r="D65" t="n">
-        <v>8.565177268005504</v>
+        <v>8.517408517724961</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.67814193456269</v>
+        <v>24.67766487485126</v>
       </c>
       <c r="D66" t="n">
-        <v>10.12822838194</v>
+        <v>8.337008957560597</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.0897777527053</v>
+        <v>24.14334083308129</v>
       </c>
       <c r="D67" t="n">
-        <v>8.46545364324226</v>
+        <v>8.857639979758289</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.00606946117535</v>
+        <v>24.70333012102735</v>
       </c>
       <c r="D68" t="n">
-        <v>8.532551772740987</v>
+        <v>7.967535383797481</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.88930660464112</v>
+        <v>23.81796574538391</v>
       </c>
       <c r="D69" t="n">
-        <v>9.013481947072387</v>
+        <v>7.727024005294949</v>
       </c>
     </row>
   </sheetData>
